--- a/Testcases_supplier/Invoices/Automated testcases/New invoices.xlsx
+++ b/Testcases_supplier/Invoices/Automated testcases/New invoices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zeemart All\Git hub\zm-buyerautomation\Testcases_supplier\Invoices\Automated testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365D55F-24BF-4356-BE47-57FEEEE7E2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C393C60F-4F0F-44F2-A56A-0D19EA207BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>SL. No</t>
   </si>
@@ -551,6 +551,37 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <r>
+      <t>Click the New invoice-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Create New Invoice'</t>
+    </r>
+  </si>
+  <si>
+    <t>It get displayed the Rename invoice fields to be more generic: “Outlet” → “Deliver to”, “Select outlet” → “Select location"</t>
+  </si>
+  <si>
+    <t>It get displayed, In the “Deliver to” field, user can select any outlets (active outlets and those created by supplier)</t>
+  </si>
+  <si>
+    <t>It get displayed “Invoice date” field appears above “Order number”</t>
+  </si>
+  <si>
+    <t>It get displayed, “Order number” field - on click of the field, it shows a list of orders from the selected outlet with delivery dates closest to the invoice date, but also allow user to type in an order number not in the dropdown lis</t>
+  </si>
+  <si>
+    <t>It get displayed, Whether user selects from dropdown or manually enter a number, only upon clicking “Load order data” will the details from that order will be loaded (if user does not load order data, the order number in the saved invoice will NOT be hyperlinked to the order details page</t>
   </si>
 </sst>
 </file>
@@ -595,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -618,17 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -638,13 +658,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -927,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,374 +989,511 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="G17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>